--- a/content/ensino/primeiro-semestre-de-2023/cronograma-matc65.xlsx
+++ b/content/ensino/primeiro-semestre-de-2023/cronograma-matc65.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Semanas</t>
   </si>
@@ -100,97 +100,94 @@
     <t xml:space="preserve">Semana 16</t>
   </si>
   <si>
+    <t xml:space="preserve">Regressão linear simples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semana 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segunda prova</t>
+  </si>
+  <si>
+    <t>legenda</t>
+  </si>
+  <si>
+    <t>Feriado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semana de prova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tópico da semana</t>
+  </si>
+  <si>
+    <t>Programa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantidade de aulas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de aulas sem feriado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tópico 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apresentação  do curso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tópico 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estatística descritiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total de aula com feriado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tópico 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probabilidade: probabilidade condicional, regra da multiplicação, teorema da probailidade total e teorema de Bayes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tópico 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variável aleatória</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tópico 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intervalo de confiança - 1 população</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tópico 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teste de Hipóteses - 1 população</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tópico 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intervalo de confiança - 2 populações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tópico 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teste de Hipóteses - 2 populações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tópico 9</t>
+  </si>
+  <si>
     <t xml:space="preserve">Teste de associação</t>
   </si>
   <si>
-    <t xml:space="preserve">Semana 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regressão linear simples</t>
-  </si>
-  <si>
-    <t xml:space="preserve">semana 18</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tópico 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segunda prova</t>
-  </si>
-  <si>
-    <t>legenda</t>
-  </si>
-  <si>
-    <t>Feriado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semana de prova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tópico da semana</t>
-  </si>
-  <si>
-    <t>Programa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantidade de aulas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Número de aulas sem feriado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tópico 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apresentação  do curso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tópico 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estatística descritiva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total de aula com feriado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tópico 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probabilidade: probabilidade condicional, regra da multiplicação, teorema da probailidade total e teorema de Bayes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tópico 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variável aleatória</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tópico 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intervalo de confiança - 1 população</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tópico 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teste de Hipóteses - 1 população</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tópico 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intervalo de confiança - 2 populações</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tópico 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teste de Hipóteses - 2 populações</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tópico 9</t>
   </si>
 </sst>
 </file>
@@ -547,8 +544,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="2"/>
-        <bgColor indexed="2"/>
+        <fgColor theme="0" tint="0"/>
+        <bgColor theme="0" tint="0"/>
       </patternFill>
     </fill>
     <fill>
@@ -842,20 +839,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
     <xf fontId="1" fillId="33" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="0" fillId="34" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="35" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="9" numFmtId="165" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="35" borderId="9" numFmtId="165" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="34" borderId="9" numFmtId="165" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="9" numFmtId="166" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf fontId="0" fillId="33" borderId="9" numFmtId="165" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf fontId="19" fillId="36" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -923,8 +919,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="Tabela1" ref="A1:H19">
-  <autoFilter ref="A1:H19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="Tabela1" ref="A1:H18">
+  <autoFilter ref="A1:H18"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Semanas"/>
     <tableColumn id="2" name="Tópico"/>
@@ -1449,7 +1445,7 @@
     <col bestFit="1" customWidth="1" min="5" max="5" style="1" width="10.953125"/>
     <col customWidth="1" min="6" max="6" style="1" width="11"/>
     <col customWidth="1" min="7" max="7" width="53.700000000000003"/>
-    <col customWidth="1" min="8" max="8" width="17.600000000000001"/>
+    <col bestFit="1" customWidth="1" min="8" max="8" width="18.00390625"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
@@ -1459,10 +1455,10 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1486,16 +1482,16 @@
         <v>9</v>
       </c>
       <c r="C2" s="1">
-        <v>44990</v>
+        <v>45004</v>
       </c>
       <c r="D2" s="1">
-        <v>44996</v>
+        <v>45010</v>
       </c>
       <c r="E2" s="1">
-        <v>44992</v>
+        <v>45006</v>
       </c>
       <c r="F2" s="1">
-        <v>44994</v>
+        <v>45008</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>10</v>
@@ -1513,20 +1509,20 @@
         <v xml:space="preserve">Tópico 2</v>
       </c>
       <c r="C3" s="1">
-        <f>C2+7</f>
-        <v>44997</v>
+        <f t="shared" ref="C3:C10" si="0">C2+7</f>
+        <v>45011</v>
       </c>
       <c r="D3" s="1">
-        <f>D2+7</f>
-        <v>45003</v>
+        <f t="shared" ref="D3:D10" si="1">D2+7</f>
+        <v>45017</v>
       </c>
       <c r="E3" s="1">
-        <f>E2+7</f>
-        <v>44999</v>
+        <f t="shared" ref="E3:E10" si="2">E2+7</f>
+        <v>45013</v>
       </c>
       <c r="F3" s="1">
-        <f>F2+7</f>
-        <v>45001</v>
+        <f t="shared" ref="F3:F10" si="3">F2+7</f>
+        <v>45015</v>
       </c>
       <c r="G3" s="2" t="str">
         <f>Programa!$B$3</f>
@@ -1545,20 +1541,20 @@
         <v xml:space="preserve">Tópico 3</v>
       </c>
       <c r="C4" s="1">
-        <f>C3+7</f>
-        <v>45004</v>
+        <f t="shared" si="0"/>
+        <v>45018</v>
       </c>
       <c r="D4" s="1">
-        <f>D3+7</f>
-        <v>45010</v>
+        <f t="shared" si="1"/>
+        <v>45024</v>
       </c>
       <c r="E4" s="1">
-        <f>E3+7</f>
-        <v>45006</v>
+        <f t="shared" si="2"/>
+        <v>45020</v>
       </c>
       <c r="F4" s="1">
-        <f>F3+7</f>
-        <v>45008</v>
+        <f t="shared" si="3"/>
+        <v>45022</v>
       </c>
       <c r="G4" s="2" t="str">
         <f>Programa!$B$4</f>
@@ -1577,20 +1573,20 @@
         <v xml:space="preserve">Tópico 3</v>
       </c>
       <c r="C5" s="1">
-        <f>C4+7</f>
-        <v>45011</v>
+        <f t="shared" si="0"/>
+        <v>45025</v>
       </c>
       <c r="D5" s="1">
-        <f>D4+7</f>
-        <v>45017</v>
+        <f t="shared" si="1"/>
+        <v>45031</v>
       </c>
       <c r="E5" s="1">
-        <f>E4+7</f>
-        <v>45013</v>
+        <f t="shared" si="2"/>
+        <v>45027</v>
       </c>
       <c r="F5" s="1">
-        <f>F4+7</f>
-        <v>45015</v>
+        <f t="shared" si="3"/>
+        <v>45029</v>
       </c>
       <c r="G5" s="2" t="str">
         <f>Programa!$B$4</f>
@@ -1609,20 +1605,20 @@
         <v xml:space="preserve">Tópico 4</v>
       </c>
       <c r="C6" s="1">
-        <f>C5+7</f>
-        <v>45018</v>
+        <f t="shared" si="0"/>
+        <v>45032</v>
       </c>
       <c r="D6" s="1">
-        <f>D5+7</f>
-        <v>45024</v>
+        <f t="shared" si="1"/>
+        <v>45038</v>
       </c>
       <c r="E6" s="1">
-        <f>E5+7</f>
-        <v>45020</v>
+        <f t="shared" si="2"/>
+        <v>45034</v>
       </c>
       <c r="F6" s="1">
-        <f>F5+7</f>
-        <v>45022</v>
+        <f t="shared" si="3"/>
+        <v>45036</v>
       </c>
       <c r="G6" s="2" t="str">
         <f>Programa!$B$5</f>
@@ -1641,20 +1637,20 @@
         <v xml:space="preserve">Tópico 4</v>
       </c>
       <c r="C7" s="1">
-        <f>C6+7</f>
-        <v>45025</v>
+        <f t="shared" si="0"/>
+        <v>45039</v>
       </c>
       <c r="D7" s="1">
-        <f>D6+7</f>
-        <v>45031</v>
+        <f t="shared" si="1"/>
+        <v>45045</v>
       </c>
       <c r="E7" s="1">
-        <f>E6+7</f>
-        <v>45027</v>
+        <f t="shared" si="2"/>
+        <v>45041</v>
       </c>
       <c r="F7" s="1">
-        <f>F6+7</f>
-        <v>45029</v>
+        <f t="shared" si="3"/>
+        <v>45043</v>
       </c>
       <c r="G7" s="2" t="str">
         <f>Programa!$B$5</f>
@@ -1673,20 +1669,20 @@
         <v xml:space="preserve">Tópico 5</v>
       </c>
       <c r="C8" s="1">
-        <f>C7+7</f>
-        <v>45032</v>
+        <f t="shared" si="0"/>
+        <v>45046</v>
       </c>
       <c r="D8" s="1">
-        <f>D7+7</f>
-        <v>45038</v>
+        <f t="shared" si="1"/>
+        <v>45052</v>
       </c>
       <c r="E8" s="1">
-        <f>E7+7</f>
-        <v>45034</v>
+        <f t="shared" si="2"/>
+        <v>45048</v>
       </c>
       <c r="F8" s="1">
-        <f>F7+7</f>
-        <v>45036</v>
+        <f t="shared" si="3"/>
+        <v>45050</v>
       </c>
       <c r="G8" s="2" t="str">
         <f>Programa!$B$6</f>
@@ -1705,20 +1701,20 @@
         <v xml:space="preserve">Tópico 5</v>
       </c>
       <c r="C9" s="1">
-        <f>C8+7</f>
-        <v>45039</v>
+        <f t="shared" si="0"/>
+        <v>45053</v>
       </c>
       <c r="D9" s="1">
-        <f>D8+7</f>
-        <v>45045</v>
+        <f t="shared" si="1"/>
+        <v>45059</v>
       </c>
       <c r="E9" s="1">
-        <f>E8+7</f>
-        <v>45041</v>
+        <f t="shared" si="2"/>
+        <v>45055</v>
       </c>
       <c r="F9" s="1">
-        <f>F8+7</f>
-        <v>45043</v>
+        <f t="shared" si="3"/>
+        <v>45057</v>
       </c>
       <c r="G9" s="2" t="str">
         <f>Programa!$B$6</f>
@@ -1737,26 +1733,26 @@
         <v xml:space="preserve">Tópico 6</v>
       </c>
       <c r="C10" s="1">
-        <f>C9+7</f>
-        <v>45046</v>
+        <f t="shared" si="0"/>
+        <v>45060</v>
       </c>
       <c r="D10" s="1">
-        <f>D9+7</f>
-        <v>45052</v>
+        <f t="shared" si="1"/>
+        <v>45066</v>
       </c>
       <c r="E10" s="1">
-        <f>E9+7</f>
-        <v>45048</v>
+        <f t="shared" si="2"/>
+        <v>45062</v>
       </c>
       <c r="F10" s="1">
-        <f>F9+7</f>
-        <v>45050</v>
+        <f t="shared" si="3"/>
+        <v>45064</v>
       </c>
       <c r="G10" s="2" t="str">
         <f>Programa!$B$7</f>
         <v xml:space="preserve">Teste de Hipóteses - 1 população</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1769,20 +1765,20 @@
         <v xml:space="preserve">Tópico 6</v>
       </c>
       <c r="C11" s="1">
-        <f>C10+7</f>
-        <v>45053</v>
+        <f t="shared" ref="C11:C18" si="4">C10+7</f>
+        <v>45067</v>
       </c>
       <c r="D11" s="1">
-        <f>D10+7</f>
-        <v>45059</v>
+        <f t="shared" ref="D11:D18" si="5">D10+7</f>
+        <v>45073</v>
       </c>
       <c r="E11" s="1">
-        <f>E10+7</f>
-        <v>45055</v>
+        <f t="shared" ref="E11:E18" si="6">E10+7</f>
+        <v>45069</v>
       </c>
       <c r="F11" s="1">
-        <f>F10+7</f>
-        <v>45057</v>
+        <f t="shared" ref="F11:F18" si="7">F10+7</f>
+        <v>45071</v>
       </c>
       <c r="G11" s="2" t="str">
         <f>Programa!$B$7</f>
@@ -1801,20 +1797,20 @@
         <v xml:space="preserve">Tópico 7</v>
       </c>
       <c r="C12" s="1">
-        <f>C11+7</f>
-        <v>45060</v>
+        <f t="shared" si="4"/>
+        <v>45074</v>
       </c>
       <c r="D12" s="1">
-        <f>D11+7</f>
-        <v>45066</v>
+        <f t="shared" si="5"/>
+        <v>45080</v>
       </c>
       <c r="E12" s="1">
-        <f>E11+7</f>
-        <v>45062</v>
+        <f t="shared" si="6"/>
+        <v>45076</v>
       </c>
       <c r="F12" s="1">
-        <f>F11+7</f>
-        <v>45064</v>
+        <f t="shared" si="7"/>
+        <v>45078</v>
       </c>
       <c r="G12" s="2" t="str">
         <f>Programa!$B$8</f>
@@ -1833,20 +1829,20 @@
         <v xml:space="preserve">Tópico 7</v>
       </c>
       <c r="C13" s="1">
-        <f>C12+7</f>
-        <v>45067</v>
+        <f t="shared" si="4"/>
+        <v>45081</v>
       </c>
       <c r="D13" s="1">
-        <f>D12+7</f>
-        <v>45073</v>
+        <f t="shared" si="5"/>
+        <v>45087</v>
       </c>
       <c r="E13" s="1">
-        <f>E12+7</f>
-        <v>45069</v>
-      </c>
-      <c r="F13" s="1">
-        <f>F12+7</f>
-        <v>45071</v>
+        <f t="shared" si="6"/>
+        <v>45083</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="7"/>
+        <v>45085</v>
       </c>
       <c r="G13" s="2" t="str">
         <f>Programa!$B$8</f>
@@ -1865,20 +1861,20 @@
         <v xml:space="preserve">Tópico 8</v>
       </c>
       <c r="C14" s="1">
-        <f>C13+7</f>
-        <v>45074</v>
+        <f t="shared" si="4"/>
+        <v>45088</v>
       </c>
       <c r="D14" s="1">
-        <f>D13+7</f>
-        <v>45080</v>
+        <f t="shared" si="5"/>
+        <v>45094</v>
       </c>
       <c r="E14" s="1">
-        <f>E13+7</f>
-        <v>45076</v>
+        <f t="shared" si="6"/>
+        <v>45090</v>
       </c>
       <c r="F14" s="1">
-        <f>F13+7</f>
-        <v>45078</v>
+        <f t="shared" si="7"/>
+        <v>45092</v>
       </c>
       <c r="G14" s="2" t="str">
         <f>Programa!$B$9</f>
@@ -1897,20 +1893,20 @@
         <v xml:space="preserve">Tópico 8</v>
       </c>
       <c r="C15" s="1">
-        <f>C14+7</f>
-        <v>45081</v>
+        <f t="shared" si="4"/>
+        <v>45095</v>
       </c>
       <c r="D15" s="1">
-        <f>D14+7</f>
-        <v>45087</v>
+        <f t="shared" si="5"/>
+        <v>45101</v>
       </c>
       <c r="E15" s="1">
-        <f>E14+7</f>
-        <v>45083</v>
+        <f t="shared" si="6"/>
+        <v>45097</v>
       </c>
       <c r="F15" s="5">
-        <f>F14+7</f>
-        <v>45085</v>
+        <f t="shared" si="7"/>
+        <v>45099</v>
       </c>
       <c r="G15" s="2" t="str">
         <f>Programa!$B$9</f>
@@ -1929,20 +1925,20 @@
         <v xml:space="preserve">Tópico 9</v>
       </c>
       <c r="C16" s="1">
-        <f>C15+7</f>
-        <v>45088</v>
+        <f t="shared" si="4"/>
+        <v>45102</v>
       </c>
       <c r="D16" s="1">
-        <f>D15+7</f>
-        <v>45094</v>
+        <f t="shared" si="5"/>
+        <v>45108</v>
       </c>
       <c r="E16" s="1">
-        <f>E15+7</f>
-        <v>45090</v>
+        <f t="shared" si="6"/>
+        <v>45104</v>
       </c>
       <c r="F16" s="1">
-        <f>F15+7</f>
-        <v>45092</v>
+        <f t="shared" si="7"/>
+        <v>45106</v>
       </c>
       <c r="G16" s="2" t="str">
         <f>Programa!$B$10</f>
@@ -1961,20 +1957,20 @@
         <v xml:space="preserve">Tópico 9</v>
       </c>
       <c r="C17" s="1">
-        <f>C16+7</f>
-        <v>45095</v>
+        <f t="shared" si="4"/>
+        <v>45109</v>
       </c>
       <c r="D17" s="1">
-        <f>D16+7</f>
-        <v>45101</v>
+        <f t="shared" si="5"/>
+        <v>45115</v>
       </c>
       <c r="E17" s="1">
-        <f>E16+7</f>
-        <v>45097</v>
+        <f t="shared" si="6"/>
+        <v>45111</v>
       </c>
       <c r="F17" s="1">
-        <f>F16+7</f>
-        <v>45099</v>
+        <f t="shared" si="7"/>
+        <v>45113</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>28</v>
@@ -1992,61 +1988,43 @@
         <v xml:space="preserve">Tópico 10</v>
       </c>
       <c r="C18" s="1">
-        <f>C17+7</f>
-        <v>45102</v>
+        <f t="shared" si="4"/>
+        <v>45116</v>
       </c>
       <c r="D18" s="1">
-        <f>D17+7</f>
-        <v>45108</v>
+        <f t="shared" si="5"/>
+        <v>45122</v>
       </c>
       <c r="E18" s="1">
-        <f>E17+7</f>
-        <v>45104</v>
+        <f t="shared" si="6"/>
+        <v>45118</v>
       </c>
       <c r="F18" s="1">
-        <f>F17+7</f>
-        <v>45106</v>
+        <f t="shared" si="7"/>
+        <v>45120</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="A20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="1">
-        <f>C18+7</f>
-        <v>45109</v>
-      </c>
-      <c r="D19" s="1">
-        <f>D18+7</f>
-        <v>45115</v>
-      </c>
-      <c r="E19" s="1">
-        <f>E18+7</f>
-        <v>45111</v>
-      </c>
-      <c r="F19" s="1">
-        <f>F18+7</f>
-        <v>45113</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2055,10 +2033,10 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="7"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2067,9 +2045,9 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9" t="s">
-        <v>35</v>
+      <c r="A22" s="9"/>
+      <c r="B22" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2078,19 +2056,6 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" ht="14.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480313" right="0.70078740157480313" top="0.75196850393700809" bottom="0.75196850393700809" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -2121,27 +2086,27 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="11" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="B2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>0.5</v>
       </c>
       <c r="E2">
@@ -2150,109 +2115,109 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="12">
-        <v>3.5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>4</v>
       </c>
       <c r="E4">
         <f>SUM(C2:C78)</f>
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="C6" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="12">
+      <c r="B7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="12" t="s">
+    <row r="8">
+      <c r="A8" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="12">
+      <c r="B8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="12" t="s">
+    <row r="9">
+      <c r="A9" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C9" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="12">
-        <v>4</v>
+      <c r="C11" s="11">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
